--- a/Excel/SkillEffectsConfig.xlsx
+++ b/Excel/SkillEffectsConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YangChengmin\Projects\GitHub\EGamePlay\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED4DB9D-B79B-4D3A-A152-901565E38D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43166B59-A141-42D1-9F13-39F4931B84D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1725" yWindow="2820" windowWidth="26100" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -31,9 +31,6 @@
     <t>作用对象</t>
   </si>
   <si>
-    <t>触发概率</t>
-  </si>
-  <si>
     <t>Target</t>
   </si>
   <si>
@@ -56,12 +53,6 @@
   </si>
   <si>
     <t>血红激光炮</t>
-  </si>
-  <si>
-    <t>伤害取值=260</t>
-  </si>
-  <si>
-    <t>间隔时间=0.3</t>
   </si>
   <si>
     <t>效果类型</t>
@@ -156,6 +147,76 @@
   </si>
   <si>
     <t>Param2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚韧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身</t>
+  </si>
+  <si>
+    <t>触发类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerType</t>
+  </si>
+  <si>
+    <t>条件触发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerParam</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发概率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗取值=生命值上限*0.02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗取值=2000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通灼烧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔触发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔时间=0.3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害取值=260</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害取值=伤害取值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +267,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +277,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -249,80 +322,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -342,7 +358,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -621,222 +637,309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3" style="2" customWidth="1"/>
     <col min="3" max="5" width="12.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="2" customWidth="1"/>
-    <col min="8" max="12" width="18.5" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="11.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.5" style="2" customWidth="1"/>
+    <col min="11" max="14" width="18.5" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
+      <c r="K3" s="3"/>
       <c r="L3" s="3"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="12"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="9">
+        <v>1001</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="I6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C7" s="9">
+        <v>1002</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C8" s="9">
+        <v>1003</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="1">
-        <v>1001</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
         <v>10000</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C7" s="1">
-        <v>1002</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="1">
-        <v>1003</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="J8" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C9" s="1">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C9" s="9">
         <v>1004</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="K9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C10" s="10">
+        <v>201</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="1">
         <v>10000</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="J10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C11" s="10">
+        <v>202</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F11" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"技能目标,自身"</formula1>
     </dataValidation>
   </dataValidations>
